--- a/demo/py_outputs/villages/Kamalapur_Source_Map.xlsx
+++ b/demo/py_outputs/villages/Kamalapur_Source_Map.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L256"/>
+  <dimension ref="A1:M256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,11 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Branch Distance</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -548,6 +553,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M2" t="n">
+        <v>29.42842086415239</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -602,6 +610,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M3" t="n">
+        <v>23.83880927526852</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -656,6 +667,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M4" t="n">
+        <v>26.46175965466205</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -710,6 +724,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M5" t="n">
+        <v>26.99415033591435</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -764,6 +781,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M6" t="n">
+        <v>28.62418136553983</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -818,6 +838,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M7" t="n">
+        <v>24.89263188571052</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -872,6 +895,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M8" t="n">
+        <v>24.76522194009705</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -926,6 +952,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M9" t="n">
+        <v>24.32108590283567</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -980,6 +1009,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M10" t="n">
+        <v>21.44795330307655</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1034,6 +1066,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M11" t="n">
+        <v>21.62226026884946</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1088,6 +1123,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M12" t="n">
+        <v>21.8760596118816</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1142,6 +1180,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M13" t="n">
+        <v>23.28224796645033</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1196,6 +1237,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M14" t="n">
+        <v>21.82652442605134</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1250,6 +1294,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M15" t="n">
+        <v>19.3257258815011</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1304,6 +1351,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M16" t="n">
+        <v>15.46312594419096</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1358,6 +1408,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M17" t="n">
+        <v>14.36987159802063</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1412,6 +1465,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M18" t="n">
+        <v>17.31727543261974</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1466,6 +1522,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M19" t="n">
+        <v>19.98705734140449</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1520,6 +1579,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M20" t="n">
+        <v>28.74120833431992</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1574,6 +1636,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M21" t="n">
+        <v>26.28355451840823</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1628,6 +1693,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M22" t="n">
+        <v>27.74750358850231</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1682,6 +1750,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M23" t="n">
+        <v>29.57485266411113</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1736,6 +1807,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M24" t="n">
+        <v>28.53585581895738</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1790,6 +1864,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M25" t="n">
+        <v>29.09219252023947</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1844,6 +1921,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M26" t="n">
+        <v>26.21817981617842</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1898,6 +1978,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M27" t="n">
+        <v>26.55918985388166</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1952,6 +2035,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M28" t="n">
+        <v>25.22133678869463</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2006,6 +2092,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M29" t="n">
+        <v>21.67304844274259</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2060,6 +2149,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M30" t="n">
+        <v>24.81240348505787</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2114,6 +2206,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M31" t="n">
+        <v>23.36632989127936</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2168,6 +2263,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M32" t="n">
+        <v>23.49145579023748</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2222,6 +2320,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M33" t="n">
+        <v>25.29033555410556</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2276,6 +2377,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M34" t="n">
+        <v>27.77868045104415</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2330,6 +2434,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M35" t="n">
+        <v>29.72073269036229</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2384,6 +2491,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M36" t="n">
+        <v>26.16959380837319</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2438,6 +2548,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M37" t="n">
+        <v>26.42051766719945</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2492,6 +2605,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M38" t="n">
+        <v>27.95792609996323</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2546,6 +2662,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M39" t="n">
+        <v>29.2898273552764</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2600,6 +2719,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M40" t="n">
+        <v>29.42300339379283</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2654,6 +2776,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M41" t="n">
+        <v>22.52171252328757</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2708,6 +2833,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M42" t="n">
+        <v>21.68559610931181</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2762,6 +2890,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M43" t="n">
+        <v>21.01200901685674</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2816,6 +2947,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M44" t="n">
+        <v>20.62781595653661</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2870,6 +3004,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M45" t="n">
+        <v>17.96546652574688</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2924,6 +3061,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M46" t="n">
+        <v>19.55060282197917</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2978,6 +3118,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M47" t="n">
+        <v>21.00394705009457</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3032,6 +3175,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M48" t="n">
+        <v>17.27957175326754</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3086,6 +3232,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M49" t="n">
+        <v>19.4529266938593</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3140,6 +3289,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M50" t="n">
+        <v>16.9258791718435</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3194,6 +3346,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M51" t="n">
+        <v>13.36762208601856</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3248,6 +3403,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M52" t="n">
+        <v>11.31553208961236</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3302,6 +3460,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M53" t="n">
+        <v>13.87849269844361</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3356,6 +3517,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M54" t="n">
+        <v>16.04522725923682</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3410,6 +3574,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M55" t="n">
+        <v>18.55569340288389</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3464,6 +3631,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M56" t="n">
+        <v>20.5780077543744</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3518,6 +3688,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M57" t="n">
+        <v>18.92594703000485</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3572,6 +3745,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M58" t="n">
+        <v>16.24890512360894</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3626,6 +3802,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M59" t="n">
+        <v>15.53591507010485</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3680,6 +3859,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M60" t="n">
+        <v>12.58300355924283</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3734,6 +3916,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M61" t="n">
+        <v>10.93391714403424</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3788,6 +3973,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M62" t="n">
+        <v>9.735010745609765</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3842,6 +4030,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M63" t="n">
+        <v>7.133720194134671</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3896,6 +4087,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M64" t="n">
+        <v>8.25435620680042</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3950,6 +4144,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M65" t="n">
+        <v>24.99268734750778</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4004,6 +4201,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M66" t="n">
+        <v>25.33687651841029</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4058,6 +4258,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M67" t="n">
+        <v>27.27543098360488</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4112,6 +4315,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M68" t="n">
+        <v>26.54992295772584</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4166,6 +4372,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M69" t="n">
+        <v>17.8680900331863</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4220,6 +4429,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M70" t="n">
+        <v>15.53816816510482</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4274,6 +4486,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M71" t="n">
+        <v>19.13557056228582</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4328,6 +4543,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M72" t="n">
+        <v>21.66163403287833</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4382,6 +4600,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M73" t="n">
+        <v>16.84551302069899</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4436,6 +4657,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M74" t="n">
+        <v>19.67086327701499</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4490,6 +4714,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M75" t="n">
+        <v>22.88988399138081</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4544,6 +4771,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M76" t="n">
+        <v>25.90670932762248</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4598,6 +4828,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M77" t="n">
+        <v>29.09663153649172</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4652,6 +4885,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M78" t="n">
+        <v>27.91556179631286</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4706,6 +4942,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M79" t="n">
+        <v>24.04867599858464</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4760,6 +4999,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M80" t="n">
+        <v>21.42807325599664</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4811,8 +5053,11 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
+        <v>20.98903855598835</v>
       </c>
     </row>
     <row r="82">
@@ -4868,6 +5113,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M82" t="n">
+        <v>23.79122393836344</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4922,6 +5170,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M83" t="n">
+        <v>22.96097109104014</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4976,6 +5227,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M84" t="n">
+        <v>26.2334233928931</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -5030,6 +5284,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M85" t="n">
+        <v>29.8967952205337</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -5084,6 +5341,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M86" t="n">
+        <v>28.16533941805307</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5138,6 +5398,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M87" t="n">
+        <v>25.5232950666729</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5192,6 +5455,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M88" t="n">
+        <v>21.5552817092506</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5246,6 +5512,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M89" t="n">
+        <v>17.89197554399795</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5300,6 +5569,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M90" t="n">
+        <v>14.24872871657869</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5354,6 +5626,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M91" t="n">
+        <v>11.45260630714701</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5408,6 +5683,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M92" t="n">
+        <v>8.995106496877279</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5462,6 +5740,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M93" t="n">
+        <v>6.386519275715219</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5516,6 +5797,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M94" t="n">
+        <v>8.954684363103659</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -5570,6 +5854,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M95" t="n">
+        <v>7.829018266746062</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -5624,6 +5911,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M96" t="n">
+        <v>11.54797858596237</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -5678,6 +5968,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M97" t="n">
+        <v>15.91971583142247</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5732,6 +6025,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M98" t="n">
+        <v>14.14733932123963</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -5786,6 +6082,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M99" t="n">
+        <v>15.12827655492578</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -5840,6 +6139,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M100" t="n">
+        <v>18.17812475177542</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -5894,6 +6196,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M101" t="n">
+        <v>20.16578324635182</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -5948,6 +6253,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M102" t="n">
+        <v>22.61691775145601</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -6002,6 +6310,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M103" t="n">
+        <v>25.35483971336543</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -6056,6 +6367,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M104" t="n">
+        <v>26.37093799596705</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -6110,6 +6424,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M105" t="n">
+        <v>23.00911970495854</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -6164,6 +6481,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M106" t="n">
+        <v>28.63455433952585</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -6218,6 +6538,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M107" t="n">
+        <v>27.23419866710299</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -6272,6 +6595,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M108" t="n">
+        <v>24.44351925746567</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -6326,6 +6652,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M109" t="n">
+        <v>17.54690975739473</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -6380,6 +6709,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M110" t="n">
+        <v>13.24381047382232</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -6434,6 +6766,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M111" t="n">
+        <v>14.69841143064715</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -6488,6 +6823,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M112" t="n">
+        <v>20.60708879860329</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -6542,6 +6880,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M113" t="n">
+        <v>26.97768247193962</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -6596,6 +6937,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M114" t="n">
+        <v>24.4118338343127</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -6650,6 +6994,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M115" t="n">
+        <v>17.32927413032892</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -6704,6 +7051,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M116" t="n">
+        <v>28.79596988156161</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -6758,6 +7108,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M117" t="n">
+        <v>29.7476532271862</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -6812,6 +7165,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M118" t="n">
+        <v>29.52200175524352</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -6866,6 +7222,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M119" t="n">
+        <v>7.438587069299644</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -6920,6 +7279,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M120" t="n">
+        <v>11.80345925801855</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -6974,6 +7336,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M121" t="n">
+        <v>10.09571191856087</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -7028,6 +7393,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M122" t="n">
+        <v>13.01803704266285</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -7082,6 +7450,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M123" t="n">
+        <v>15.87506610915639</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -7136,6 +7507,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M124" t="n">
+        <v>18.73035971975688</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -7190,6 +7564,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M125" t="n">
+        <v>17.89448754562994</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -7244,6 +7621,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M126" t="n">
+        <v>18.62776076630373</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -7298,6 +7678,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M127" t="n">
+        <v>15.52509670668011</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -7352,6 +7735,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M128" t="n">
+        <v>12.71753229379284</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -7406,6 +7792,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M129" t="n">
+        <v>12.50726630425381</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -7460,6 +7849,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M130" t="n">
+        <v>9.743826532413912</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -7514,6 +7906,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M131" t="n">
+        <v>7.186024452626904</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -7568,6 +7963,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M132" t="n">
+        <v>6.356598502701872</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -7622,6 +8020,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M133" t="n">
+        <v>4.517383251841356</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -7676,6 +8077,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M134" t="n">
+        <v>4.484896750209636</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -7730,6 +8134,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M135" t="n">
+        <v>2.868889466725837</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -7784,6 +8191,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M136" t="n">
+        <v>1.91726124160566</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -7838,6 +8248,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M137" t="n">
+        <v>7.403152198427046</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -7892,6 +8305,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M138" t="n">
+        <v>4.868809464156409</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -7946,6 +8362,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M139" t="n">
+        <v>4.982491046227778</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -8000,6 +8419,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M140" t="n">
+        <v>6.096575496144307</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -8054,6 +8476,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M141" t="n">
+        <v>9.132500292753383</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -8108,6 +8533,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M142" t="n">
+        <v>8.951065553184089</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -8162,6 +8590,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M143" t="n">
+        <v>13.94998975571272</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -8216,6 +8647,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M144" t="n">
+        <v>17.29669357669265</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -8270,6 +8704,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M145" t="n">
+        <v>7.601744978349939</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -8321,8 +8758,11 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>5.417339468313711</v>
       </c>
     </row>
     <row r="147">
@@ -8378,6 +8818,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M147" t="n">
+        <v>4.595597191707923</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -8432,6 +8875,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M148" t="n">
+        <v>2.330810014187355</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -8486,6 +8932,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M149" t="n">
+        <v>3.353400618814704</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -8540,6 +8989,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M150" t="n">
+        <v>5.428221177410889</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -8594,6 +9046,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M151" t="n">
+        <v>7.706406900951868</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -8648,6 +9103,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M152" t="n">
+        <v>10.58158932190558</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -8702,6 +9160,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M153" t="n">
+        <v>10.72355004494256</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -8756,6 +9217,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M154" t="n">
+        <v>8.368349492030386</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -8810,6 +9274,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M155" t="n">
+        <v>10.12632179652909</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -8864,6 +9331,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M156" t="n">
+        <v>10.89720241449876</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -8918,6 +9388,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M157" t="n">
+        <v>11.81536022051002</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -8972,6 +9445,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M158" t="n">
+        <v>12.34069752075059</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -9026,6 +9502,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M159" t="n">
+        <v>14.97967924713482</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -9080,6 +9559,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M160" t="n">
+        <v>15.26185730001598</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -9134,6 +9616,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M161" t="n">
+        <v>14.10334386552944</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -9188,6 +9673,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M162" t="n">
+        <v>12.85483249708932</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -9242,6 +9730,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M163" t="n">
+        <v>11.71462810413337</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -9296,6 +9787,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M164" t="n">
+        <v>13.01156090491852</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -9350,6 +9844,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M165" t="n">
+        <v>10.92678682596019</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -9404,6 +9901,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M166" t="n">
+        <v>10.7680043944466</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -9458,6 +9958,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M167" t="n">
+        <v>12.99120602032893</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -9512,6 +10015,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M168" t="n">
+        <v>11.12966747922369</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -9566,6 +10072,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M169" t="n">
+        <v>25.08300292832022</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -9620,6 +10129,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M170" t="n">
+        <v>21.52553179148099</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -9674,6 +10186,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M171" t="n">
+        <v>23.32773991214778</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -9728,6 +10243,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M172" t="n">
+        <v>19.17306142141153</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -9782,6 +10300,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M173" t="n">
+        <v>18.1088279046921</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -9836,6 +10357,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M174" t="n">
+        <v>16.77504884015461</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -9890,6 +10414,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M175" t="n">
+        <v>15.36984026262766</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -9944,6 +10471,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M176" t="n">
+        <v>19.65812054336857</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -9998,6 +10528,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M177" t="n">
+        <v>20.90319034561689</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -10052,6 +10585,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M178" t="n">
+        <v>22.37237908051809</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -10106,6 +10642,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M179" t="n">
+        <v>24.06313362093226</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -10160,6 +10699,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M180" t="n">
+        <v>21.30705189348013</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -10214,6 +10756,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M181" t="n">
+        <v>18.54485818935073</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -10268,6 +10813,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M182" t="n">
+        <v>14.51088423445482</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -10322,6 +10870,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M183" t="n">
+        <v>16.40822930974603</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -10376,6 +10927,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M184" t="n">
+        <v>20.27190443103133</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -10430,6 +10984,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M185" t="n">
+        <v>21.66764631267742</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -10484,6 +11041,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M186" t="n">
+        <v>22.40223111251839</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -10538,6 +11098,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M187" t="n">
+        <v>23.43865839232971</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -10592,6 +11155,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M188" t="n">
+        <v>25.26488082898325</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -10646,6 +11212,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M189" t="n">
+        <v>27.01130940626311</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -10700,6 +11269,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M190" t="n">
+        <v>28.09818719230696</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -10754,6 +11326,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M191" t="n">
+        <v>29.74548754764446</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -10808,6 +11383,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M192" t="n">
+        <v>28.47356927566652</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -10862,6 +11440,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M193" t="n">
+        <v>27.02049041691121</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -10916,6 +11497,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M194" t="n">
+        <v>24.65775905502542</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -10970,6 +11554,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M195" t="n">
+        <v>22.15609293210298</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -11024,6 +11611,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M196" t="n">
+        <v>25.17108391419126</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -11078,6 +11668,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M197" t="n">
+        <v>28.01309495724022</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -11132,6 +11725,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M198" t="n">
+        <v>28.5547858877501</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -11186,6 +11782,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M199" t="n">
+        <v>25.62190291915051</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -11240,6 +11839,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M200" t="n">
+        <v>25.60925844764282</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -11294,6 +11896,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M201" t="n">
+        <v>29.73174607633631</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -11348,6 +11953,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M202" t="n">
+        <v>14.92305039000664</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -11402,6 +12010,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M203" t="n">
+        <v>18.80356495036764</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -11456,6 +12067,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M204" t="n">
+        <v>19.79027220255384</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -11510,6 +12124,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M205" t="n">
+        <v>21.73267520939704</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -11564,6 +12181,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M206" t="n">
+        <v>25.66461420949769</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -11618,6 +12238,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M207" t="n">
+        <v>29.56530570497547</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -11672,6 +12295,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M208" t="n">
+        <v>29.26663015368099</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -11726,6 +12352,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M209" t="n">
+        <v>27.04480798828155</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -11780,6 +12409,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M210" t="n">
+        <v>24.59091089848528</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -11834,6 +12466,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M211" t="n">
+        <v>21.08453700259791</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -11888,6 +12523,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M212" t="n">
+        <v>14.91294393170309</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -11942,6 +12580,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M213" t="n">
+        <v>15.09255556466864</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -11996,6 +12637,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M214" t="n">
+        <v>18.88266993122664</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -12050,6 +12694,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M215" t="n">
+        <v>22.64458960007283</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -12104,6 +12751,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M216" t="n">
+        <v>26.9131939512734</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -12158,6 +12808,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M217" t="n">
+        <v>27.31175942830512</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -12212,6 +12865,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M218" t="n">
+        <v>19.22062648103194</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -12266,6 +12922,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M219" t="n">
+        <v>22.41499243835187</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -12320,6 +12979,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M220" t="n">
+        <v>24.62283373124019</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -12374,6 +13036,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M221" t="n">
+        <v>26.52847054267594</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -12428,6 +13093,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M222" t="n">
+        <v>29.50782370122278</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -12482,6 +13150,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M223" t="n">
+        <v>28.3373736433905</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -12536,6 +13207,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M224" t="n">
+        <v>27.73238596461551</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -12590,6 +13264,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M225" t="n">
+        <v>24.58817868039599</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -12644,6 +13321,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M226" t="n">
+        <v>19.5815789053253</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -12698,6 +13378,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M227" t="n">
+        <v>22.36794580783703</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -12752,6 +13435,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M228" t="n">
+        <v>29.12208871340352</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -12806,6 +13492,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M229" t="n">
+        <v>14.58650550199027</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -12860,6 +13549,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M230" t="n">
+        <v>14.13112719517906</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -12914,6 +13606,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M231" t="n">
+        <v>13.82675467265236</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -12968,6 +13663,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M232" t="n">
+        <v>13.15792072756244</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -13022,6 +13720,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M233" t="n">
+        <v>15.05795104128847</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -13076,6 +13777,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M234" t="n">
+        <v>15.43761610906982</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -13130,6 +13834,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M235" t="n">
+        <v>16.5952896325722</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -13184,6 +13891,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M236" t="n">
+        <v>18.05892984379235</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -13238,6 +13948,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M237" t="n">
+        <v>17.09346936954298</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -13292,6 +14005,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M238" t="n">
+        <v>16.17174029946368</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -13346,6 +14062,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M239" t="n">
+        <v>19.64802429949014</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -13400,6 +14119,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M240" t="n">
+        <v>20.80105728149617</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -13454,6 +14176,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M241" t="n">
+        <v>22.43260448801025</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -13508,6 +14233,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M242" t="n">
+        <v>23.70521933854285</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -13562,6 +14290,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M243" t="n">
+        <v>25.31878864477225</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -13616,6 +14347,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M244" t="n">
+        <v>27.43202240899619</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -13670,6 +14404,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M245" t="n">
+        <v>20.36362557996567</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -13724,6 +14461,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M246" t="n">
+        <v>16.60391358425032</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -13778,6 +14518,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M247" t="n">
+        <v>17.75539657623187</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -13832,6 +14575,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M248" t="n">
+        <v>19.12804264032027</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -13886,6 +14632,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M249" t="n">
+        <v>21.15056339058317</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -13940,6 +14689,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M250" t="n">
+        <v>24.12696713719307</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -13994,6 +14746,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M251" t="n">
+        <v>27.04893136734904</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -14048,6 +14803,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M252" t="n">
+        <v>28.66666303571819</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -14102,6 +14860,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M253" t="n">
+        <v>28.75900980507696</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -14156,6 +14917,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M254" t="n">
+        <v>26.63114061112985</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -14210,6 +14974,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M255" t="n">
+        <v>27.39361905397016</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -14263,6 +15030,9 @@
         <is>
           <t>Visited</t>
         </is>
+      </c>
+      <c r="M256" t="n">
+        <v>28.69225504688093</v>
       </c>
     </row>
   </sheetData>
